--- a/excelfile.xlsx
+++ b/excelfile.xlsx
@@ -24,7 +24,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>third</t>
+    <t>hrll</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,25 +384,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
